--- a/data/proshares_analysis_data.xlsx
+++ b/data/proshares_analysis_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data_science\Python_Project\finm-quant-2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF104F-C444-48DE-854B-D768D2A7BD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3414E01-A56B-4AC1-B020-FE14E3D24A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>security_name</t>
   </si>
@@ -117,15 +117,23 @@
   <si>
     <t>US Generic Govt 3 Mth</t>
   </si>
+  <si>
+    <t>USGG3M Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPY US Equity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +153,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,12 +197,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3296,7 +3314,7 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3311,11 +3329,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
